--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t>VIN</t>
   </si>
@@ -283,6 +283,24 @@
   </si>
   <si>
     <t>SYMBOL_2000</t>
+  </si>
+  <si>
+    <t>BBBKN3DD&amp;E</t>
+  </si>
+  <si>
+    <t>MAKEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>MODELPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>SERIESPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYTYPEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYSTYLEPAS2713ENDOR</t>
   </si>
 </sst>
 </file>
@@ -638,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,8 +1265,8 @@
       <c r="B6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3">
-        <v>2015</v>
+      <c r="C6" s="2">
+        <v>2018</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>62</v>
@@ -1350,6 +1368,122 @@
         <v>39</v>
       </c>
       <c r="AL6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>88888</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7">
+        <v>214</v>
+      </c>
+      <c r="R7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7">
+        <v>33</v>
+      </c>
+      <c r="AB7">
+        <v>43</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7">
+        <v>20000101</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" t="s">
         <v>50</v>
       </c>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>1FDEU15H&amp;K</t>
-  </si>
-  <si>
     <t>STAT</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>BODYSTYLEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>AAANK3CC&amp;F</t>
   </si>
 </sst>
 </file>
@@ -659,34 +659,34 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="29" width="16.28515625" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -772,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
@@ -802,21 +802,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -892,16 +892,16 @@
         <v>39</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI2">
         <v>20010101</v>
@@ -916,24 +916,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -1006,16 +1006,16 @@
         <v>39</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI3">
         <v>20000101</v>
@@ -1030,24 +1030,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
@@ -1120,16 +1120,16 @@
         <v>39</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI4">
         <v>20150101</v>
@@ -1144,24 +1144,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
@@ -1221,7 +1221,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA5" s="2">
         <v>41</v>
@@ -1234,16 +1234,16 @@
         <v>39</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI5">
         <v>20190101</v>
@@ -1258,27 +1258,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
         <v>2018</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
@@ -1287,19 +1287,19 @@
         <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="3">
         <v>12</v>
@@ -1311,7 +1311,7 @@
         <v>214</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S6" s="3">
         <v>4</v>
@@ -1335,7 +1335,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA6" s="3">
         <v>33</v>
@@ -1347,16 +1347,16 @@
         <v>39</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI6" s="3">
         <v>20000101</v>
@@ -1371,27 +1371,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
       </c>
       <c r="H7">
         <v>88888</v>
@@ -1400,19 +1400,19 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
         <v>79</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>80</v>
       </c>
       <c r="M7" t="s">
         <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7">
         <v>12</v>
@@ -1424,7 +1424,7 @@
         <v>214</v>
       </c>
       <c r="R7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -1448,7 +1448,7 @@
         <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA7">
         <v>33</v>
@@ -1457,22 +1457,22 @@
         <v>43</v>
       </c>
       <c r="AC7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="s">
         <v>39</v>
       </c>
       <c r="AE7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI7">
         <v>20000101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -23,42 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Petrenko, Viktor (C)</author>
-  </authors>
-  <commentList>
-    <comment ref="AA6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>VIN</t>
   </si>
@@ -231,33 +197,9 @@
     <t>CA_MAKE_TEXT</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -280,24 +222,6 @@
   </si>
   <si>
     <t>SYMBOL_2000</t>
-  </si>
-  <si>
-    <t>BBBKN3DD&amp;E</t>
-  </si>
-  <si>
-    <t>MAKEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>MODELPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>SERIESPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYTYPEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYSTYLEPAS2713ENDOR</t>
   </si>
   <si>
     <t>AAANK3CC&amp;F</t>
@@ -307,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,19 +251,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -655,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,19 +715,19 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -918,10 +829,10 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>2018</v>
@@ -933,7 +844,7 @@
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -1006,16 +917,16 @@
         <v>39</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AI3">
         <v>20000101</v>
@@ -1032,10 +943,10 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
@@ -1047,7 +958,7 @@
         <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
@@ -1120,16 +1031,16 @@
         <v>39</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI4">
         <v>20150101</v>
@@ -1146,10 +1057,10 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
@@ -1161,7 +1072,7 @@
         <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
@@ -1221,7 +1132,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="2">
         <v>41</v>
@@ -1234,16 +1145,16 @@
         <v>39</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AI5">
         <v>20190101</v>
@@ -1255,241 +1166,11 @@
         <v>39</v>
       </c>
       <c r="AL5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>214</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="3">
-        <v>4</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>43</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7">
-        <v>2018</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7">
-        <v>88888</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7">
-        <v>214</v>
-      </c>
-      <c r="R7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA7">
-        <v>33</v>
-      </c>
-      <c r="AB7">
-        <v>43</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI7">
-        <v>20000101</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL7" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
   <si>
     <t>VIN</t>
   </si>
@@ -225,6 +225,39 @@
   </si>
   <si>
     <t>AAANK3CC&amp;F</t>
+  </si>
+  <si>
+    <t>MAKEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>MODELPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>SERIESPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYTYPEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>HATCHBACK 4 DOOR</t>
+  </si>
+  <si>
+    <t>BODYSTYLEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>HHHNK2CC&amp;F</t>
   </si>
 </sst>
 </file>
@@ -567,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,6 +1202,122 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6">
+        <v>88888</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6">
+        <v>214</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6">
+        <v>33</v>
+      </c>
+      <c r="AB6">
+        <v>43</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6">
+        <v>20000101</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
   <si>
     <t>VIN</t>
   </si>
@@ -258,6 +258,27 @@
   </si>
   <si>
     <t>HHHNK2CC&amp;F</t>
+  </si>
+  <si>
+    <t>MAKEVINDONTMATCH</t>
+  </si>
+  <si>
+    <t>MODELVINDONTMATCH</t>
+  </si>
+  <si>
+    <t>SERIESVINDONTMATCH</t>
+  </si>
+  <si>
+    <t>BODYTYPEVINDONTMATCH</t>
+  </si>
+  <si>
+    <t>SEDAN</t>
+  </si>
+  <si>
+    <t>BODYSTYLEVINDONTMATCH</t>
+  </si>
+  <si>
+    <t>1MSRP15H&amp;V</t>
   </si>
 </sst>
 </file>
@@ -600,37 +621,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="29" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="29" width="16.33203125" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="38" max="38" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -860,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -974,7 +995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1088,7 +1109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1202,14 +1223,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
@@ -1315,6 +1336,122 @@
         <v>39</v>
       </c>
       <c r="AL6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>88888</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7">
+        <v>214</v>
+      </c>
+      <c r="R7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7">
+        <v>33</v>
+      </c>
+      <c r="AB7">
+        <v>43</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7">
+        <v>20000101</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" t="s">
         <v>50</v>
       </c>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
   <si>
     <t>VIN</t>
   </si>
@@ -260,25 +260,22 @@
     <t>HHHNK2CC&amp;F</t>
   </si>
   <si>
-    <t>MAKEVINDONTMATCH</t>
-  </si>
-  <si>
-    <t>MODELVINDONTMATCH</t>
-  </si>
-  <si>
-    <t>SERIESVINDONTMATCH</t>
-  </si>
-  <si>
-    <t>BODYTYPEVINDONTMATCH</t>
-  </si>
-  <si>
     <t>SEDAN</t>
   </si>
   <si>
-    <t>BODYSTYLEVINDONTMATCH</t>
-  </si>
-  <si>
     <t>1MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>PASSAT</t>
+  </si>
+  <si>
+    <t>PASSAT GL</t>
+  </si>
+  <si>
+    <t>SEDAN 4 DOOR</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,25 +1338,25 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7">
         <v>88888</v>
@@ -1368,10 +1365,10 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
         <v>83</v>
@@ -1419,10 +1416,10 @@
         <v>75</v>
       </c>
       <c r="AA7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s">
         <v>54</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="77">
   <si>
     <t>VIN</t>
   </si>
@@ -227,24 +227,6 @@
     <t>AAANK3CC&amp;F</t>
   </si>
   <si>
-    <t>MAKEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>MODELPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>SERIESPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYTYPEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>BODYSTYLEPAS2713ENDOR</t>
-  </si>
-  <si>
     <t>8L V12</t>
   </si>
   <si>
@@ -255,9 +237,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>HHHNK2CC&amp;F</t>
   </si>
   <si>
     <t>SEDAN</t>
@@ -618,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,25 +1201,25 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>88888</v>
@@ -1249,19 +1228,19 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O6">
         <v>12</v>
@@ -1273,7 +1252,7 @@
         <v>214</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1297,13 +1276,13 @@
         <v>37</v>
       </c>
       <c r="Z6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s">
         <v>54</v>
@@ -1312,16 +1291,16 @@
         <v>39</v>
       </c>
       <c r="AE6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AH6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AI6">
         <v>20000101</v>
@@ -1333,122 +1312,6 @@
         <v>39</v>
       </c>
       <c r="AL6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7">
-        <v>88888</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7">
-        <v>214</v>
-      </c>
-      <c r="R7" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7">
-        <v>35</v>
-      </c>
-      <c r="AB7">
-        <v>45</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI7">
-        <v>20000101</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL7" t="s">
         <v>50</v>
       </c>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>VIN</t>
   </si>
@@ -225,36 +225,6 @@
   </si>
   <si>
     <t>AAANK3CC&amp;F</t>
-  </si>
-  <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>SEDAN</t>
-  </si>
-  <si>
-    <t>1MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>PASSAT</t>
-  </si>
-  <si>
-    <t>PASSAT GL</t>
-  </si>
-  <si>
-    <t>SEDAN 4 DOOR</t>
   </si>
 </sst>
 </file>
@@ -597,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,122 +1169,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6">
-        <v>88888</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6">
-        <v>12</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6">
-        <v>214</v>
-      </c>
-      <c r="R6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA6">
-        <v>35</v>
-      </c>
-      <c r="AB6">
-        <v>45</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI6">
-        <v>20000101</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="77">
   <si>
     <t>VIN</t>
   </si>
@@ -44,238 +44,217 @@
     <t>MODEL_TEXT</t>
   </si>
   <si>
+    <t>MFG_BAS_MSRP</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>BODYTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>SEGMENTATION_CD</t>
+  </si>
+  <si>
+    <t>BODY_STYLE_CD</t>
+  </si>
+  <si>
+    <t>BODYSHELL</t>
+  </si>
+  <si>
+    <t>ENGINE_NAME</t>
+  </si>
+  <si>
+    <t>NUMOFCYLINDERS</t>
+  </si>
+  <si>
+    <t>ENG_FUEL_CD</t>
+  </si>
+  <si>
+    <t>ENG_DISPLCMNT_CI</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>WHEELDRIVE</t>
+  </si>
+  <si>
+    <t>RESTRAINTSCODE</t>
+  </si>
+  <si>
+    <t>RESTRAINTSCODE_TEXT</t>
+  </si>
+  <si>
+    <t>ANTILOCKCODE</t>
+  </si>
+  <si>
+    <t>ANTILOCKCODE_TEXT</t>
+  </si>
+  <si>
+    <t>ANTITHEFTCODE</t>
+  </si>
+  <si>
+    <t>ANTITHEFTCODE_TEXT</t>
+  </si>
+  <si>
+    <t>COLL_SYMBOL</t>
+  </si>
+  <si>
+    <t>COMP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ALTFUEL</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>2WD</t>
+  </si>
+  <si>
+    <t>000R</t>
+  </si>
+  <si>
+    <t>DUAL AIR BAGS FRONT</t>
+  </si>
+  <si>
+    <t>4 WHEEL STANDARD</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>4.5L V10</t>
+  </si>
+  <si>
+    <t>BI_SYMBOL</t>
+  </si>
+  <si>
+    <t>PD_SYMBOL</t>
+  </si>
+  <si>
+    <t>UM_SYMBOL</t>
+  </si>
+  <si>
+    <t>MP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ENTRYDATE</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>ANTITHEFT_DISCOUNT</t>
+  </si>
+  <si>
+    <t>RESTRAINTS_DISCOUNT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CA_MAKE</t>
+  </si>
+  <si>
+    <t>CA_MAKE_TEXT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>invalidVIN</t>
+  </si>
+  <si>
+    <t>SecondValid</t>
+  </si>
+  <si>
+    <t>ThirdValid</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>SYMBOL_2000</t>
+  </si>
+  <si>
+    <t>AAANK3CC&amp;F</t>
+  </si>
+  <si>
+    <t>MAKEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>MODELPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYTYPEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>HATCHBACK 4 DOOR</t>
+  </si>
+  <si>
+    <t>BODYSTYLEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>HHHNK2CC&amp;F</t>
+  </si>
+  <si>
+    <t>SEDAN</t>
+  </si>
+  <si>
+    <t>1MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>PASSAT</t>
+  </si>
+  <si>
+    <t>SEDAN 4 DOOR</t>
+  </si>
+  <si>
     <t>SERIES_TEXT</t>
   </si>
   <si>
-    <t>MFG_BAS_MSRP</t>
-  </si>
-  <si>
-    <t>BODY</t>
-  </si>
-  <si>
-    <t>BODYTYPE_TEXT</t>
-  </si>
-  <si>
-    <t>SEGMENTATION_CD</t>
-  </si>
-  <si>
-    <t>BODY_STYLE_CD</t>
-  </si>
-  <si>
-    <t>BODYSHELL</t>
-  </si>
-  <si>
-    <t>ENGINE_NAME</t>
-  </si>
-  <si>
-    <t>NUMOFCYLINDERS</t>
-  </si>
-  <si>
-    <t>ENG_FUEL_CD</t>
-  </si>
-  <si>
-    <t>ENG_DISPLCMNT_CI</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>WHEELDRIVE</t>
-  </si>
-  <si>
-    <t>RESTRAINTSCODE</t>
-  </si>
-  <si>
-    <t>RESTRAINTSCODE_TEXT</t>
-  </si>
-  <si>
-    <t>ANTILOCKCODE</t>
-  </si>
-  <si>
-    <t>ANTILOCKCODE_TEXT</t>
-  </si>
-  <si>
-    <t>ANTITHEFTCODE</t>
-  </si>
-  <si>
-    <t>ANTITHEFTCODE_TEXT</t>
-  </si>
-  <si>
-    <t>COLL_SYMBOL</t>
-  </si>
-  <si>
-    <t>COMP_SYMBOL</t>
-  </si>
-  <si>
-    <t>ALTFUEL</t>
-  </si>
-  <si>
     <t>MDX ADVANCE</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>SUV</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>2WD</t>
-  </si>
-  <si>
-    <t>000R</t>
-  </si>
-  <si>
-    <t>DUAL AIR BAGS FRONT</t>
-  </si>
-  <si>
-    <t>4 WHEEL STANDARD</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Gt</t>
-  </si>
-  <si>
-    <t>4.5L V10</t>
-  </si>
-  <si>
-    <t>BI_SYMBOL</t>
-  </si>
-  <si>
-    <t>PD_SYMBOL</t>
-  </si>
-  <si>
-    <t>UM_SYMBOL</t>
-  </si>
-  <si>
-    <t>MP_SYMBOL</t>
-  </si>
-  <si>
-    <t>ENTRYDATE</t>
-  </si>
-  <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>ANTITHEFT_DISCOUNT</t>
-  </si>
-  <si>
-    <t>RESTRAINTS_DISCOUNT</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CA_MAKE</t>
-  </si>
-  <si>
-    <t>CA_MAKE_TEXT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>invalidVIN</t>
-  </si>
-  <si>
-    <t>SecondValid</t>
-  </si>
-  <si>
-    <t>ThirdValid</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000</t>
-  </si>
-  <si>
-    <t>AAANK3CC&amp;F</t>
-  </si>
-  <si>
-    <t>MAKEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>MODELPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>SERIESPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYTYPEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>BODYSTYLEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>HHHNK2CC&amp;F</t>
-  </si>
-  <si>
-    <t>SEDAN</t>
-  </si>
-  <si>
-    <t>1MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>PASSAT</t>
-  </si>
-  <si>
-    <t>PASSAT GL</t>
-  </si>
-  <si>
-    <t>SEDAN 4 DOOR</t>
   </si>
 </sst>
 </file>
@@ -618,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,24 +610,22 @@
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.33203125" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,64 +645,64 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -734,722 +711,688 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2">
         <v>53080</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2">
         <v>8</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="2">
         <v>214</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2">
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V2" s="2">
         <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>38</v>
+      <c r="Z2" s="2">
+        <v>41</v>
       </c>
       <c r="AA2" s="2">
         <v>41</v>
       </c>
-      <c r="AB2" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AD2" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2">
+        <v>49</v>
+      </c>
+      <c r="AG2">
         <v>20010101</v>
       </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2">
         <v>53080</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
         <v>8</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="2">
         <v>214</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S3" s="2">
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V3" s="2">
         <v>2</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>38</v>
+      <c r="Z3" s="2">
+        <v>41</v>
       </c>
       <c r="AA3" s="2">
         <v>41</v>
       </c>
-      <c r="AB3" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="AD3" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3">
+        <v>53</v>
+      </c>
+      <c r="AG3">
         <v>20000101</v>
       </c>
+      <c r="AH3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>36</v>
+      </c>
       <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2">
         <v>53080</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
         <v>8</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="2">
         <v>214</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S4" s="2">
         <v>2</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V4" s="2">
         <v>2</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>38</v>
+      <c r="Z4" s="2">
+        <v>41</v>
       </c>
       <c r="AA4" s="2">
         <v>41</v>
       </c>
-      <c r="AB4" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="AD4" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4">
+        <v>52</v>
+      </c>
+      <c r="AG4">
         <v>20150101</v>
       </c>
+      <c r="AH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>36</v>
+      </c>
       <c r="AJ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2">
         <v>53080</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2">
         <v>8</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="2">
         <v>214</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S5" s="2">
         <v>2</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V5" s="2">
         <v>2</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>60</v>
+      <c r="Z5" s="2">
+        <v>41</v>
       </c>
       <c r="AA5" s="2">
         <v>41</v>
       </c>
-      <c r="AB5" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="AD5" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="AE5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5">
+        <v>20190101</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5">
-        <v>20190101</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H6">
         <v>88888</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O6">
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q6">
         <v>214</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V6">
         <v>2</v>
       </c>
       <c r="W6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
         <v>35</v>
       </c>
-      <c r="X6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>75</v>
+      <c r="Z6">
+        <v>33</v>
       </c>
       <c r="AA6">
-        <v>33</v>
-      </c>
-      <c r="AB6">
         <v>43</v>
       </c>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
       <c r="AC6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AD6" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AE6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="AG6">
+        <v>20000101</v>
       </c>
       <c r="AH6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI6">
-        <v>20000101</v>
+        <v>36</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>36</v>
       </c>
       <c r="AJ6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2">
         <v>2005</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H7">
         <v>88888</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O7">
         <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q7">
         <v>214</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
         <v>35</v>
       </c>
-      <c r="X7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>75</v>
+      <c r="Z7">
+        <v>35</v>
       </c>
       <c r="AA7">
-        <v>35</v>
-      </c>
-      <c r="AB7">
         <v>45</v>
       </c>
+      <c r="AB7" t="s">
+        <v>36</v>
+      </c>
       <c r="AC7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AD7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AE7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AF7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="AG7">
+        <v>20000101</v>
       </c>
       <c r="AH7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI7">
-        <v>20000101</v>
+        <v>36</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>36</v>
       </c>
       <c r="AJ7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>VIN</t>
   </si>
@@ -140,9 +140,6 @@
     <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>invalidVIN</t>
@@ -567,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="AC1" activeCellId="1" sqref="Z1:Z1048576 AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,14 +578,13 @@
     <col min="23" max="23" width="22.33203125" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.33203125" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,63 +661,57 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
@@ -742,19 +723,19 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2">
         <v>8</v>
@@ -789,62 +770,58 @@
       <c r="Y2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>38</v>
+      <c r="Z2" s="2">
+        <v>41</v>
       </c>
       <c r="AA2" s="2">
         <v>41</v>
       </c>
-      <c r="AB2" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="AD2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2">
+        <v>51</v>
+      </c>
+      <c r="AG2">
         <v>20010101</v>
       </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -856,19 +833,19 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2">
         <v>8</v>
@@ -903,62 +880,58 @@
       <c r="Y3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>38</v>
+      <c r="Z3" s="2">
+        <v>41</v>
       </c>
       <c r="AA3" s="2">
         <v>41</v>
       </c>
-      <c r="AB3" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="AD3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3">
+        <v>55</v>
+      </c>
+      <c r="AG3">
         <v>20000101</v>
       </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
@@ -970,19 +943,19 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2">
         <v>8</v>
@@ -1017,62 +990,58 @@
       <c r="Y4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>38</v>
+      <c r="Z4" s="2">
+        <v>41</v>
       </c>
       <c r="AA4" s="2">
         <v>41</v>
       </c>
-      <c r="AB4" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="AD4" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4">
+        <v>54</v>
+      </c>
+      <c r="AG4">
         <v>20150101</v>
       </c>
+      <c r="AH4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
@@ -1084,19 +1053,19 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2">
         <v>8</v>
@@ -1131,42 +1100,38 @@
       <c r="Y5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>60</v>
+      <c r="Z5" s="2">
+        <v>41</v>
       </c>
       <c r="AA5" s="2">
         <v>41</v>
       </c>
-      <c r="AB5" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="AD5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5">
+        <v>56</v>
+      </c>
+      <c r="AG5">
         <v>20190101</v>
       </c>
+      <c r="AH5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
